--- a/client/public/EQUIVALENT_CATEGORY_NAMES.xlsx
+++ b/client/public/EQUIVALENT_CATEGORY_NAMES.xlsx
@@ -125,12 +125,6 @@
     <t>材料采购</t>
   </si>
   <si>
-    <t>预留1</t>
-  </si>
-  <si>
-    <t>placeholder1</t>
-  </si>
-  <si>
     <t>预留2</t>
   </si>
   <si>
@@ -255,6 +249,12 @@
   </si>
   <si>
     <t>placeholder22</t>
+  </si>
+  <si>
+    <t>进项税</t>
+  </si>
+  <si>
+    <t>进项税额</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B37"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,178 +721,178 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
